--- a/data/trans_dic/P22_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05916319297493788</v>
+        <v>0.05904138028621372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03622949138547452</v>
+        <v>0.03616627273803057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05025970637785282</v>
+        <v>0.05087562274611821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06489589029500148</v>
+        <v>0.06519949992201264</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07290214679928754</v>
+        <v>0.07198641676343878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04566580921831533</v>
+        <v>0.04565665243500689</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03177619164810421</v>
+        <v>0.03328679988315211</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04795837872208794</v>
+        <v>0.04940912781045238</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07230778267195848</v>
+        <v>0.07154651808006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04605255374660382</v>
+        <v>0.04693709927201907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04852684135394601</v>
+        <v>0.04729004442968683</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06604777833986929</v>
+        <v>0.0691791648252725</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1086321004073771</v>
+        <v>0.113693459709911</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07944810082673846</v>
+        <v>0.0813677224908641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1051629840187055</v>
+        <v>0.1074256938980641</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1701338826214927</v>
+        <v>0.1748201440472576</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1287552659900256</v>
+        <v>0.1264951421183667</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09385087527801481</v>
+        <v>0.09324397579001538</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07626951757808105</v>
+        <v>0.08194440092674213</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1276111022556209</v>
+        <v>0.1340598501716555</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1096378075262348</v>
+        <v>0.1100982951273225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08058077736368791</v>
+        <v>0.07979079641696474</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08327758223808009</v>
+        <v>0.08166135903272298</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1345941243067508</v>
+        <v>0.1361386021297219</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07828201084174953</v>
+        <v>0.0795992418253276</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08889736745257194</v>
+        <v>0.08952254303954957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05241066171123744</v>
+        <v>0.0524979514330044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05827961991252831</v>
+        <v>0.05707636874503078</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09216551632362584</v>
+        <v>0.09281422781909775</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06741521797380522</v>
+        <v>0.06697749179346719</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08967900122995165</v>
+        <v>0.08807700337780186</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1205989122907862</v>
+        <v>0.1179017874159712</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09201373451360681</v>
+        <v>0.09190786227334907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08394596541482401</v>
+        <v>0.08368068339792417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07551457908068419</v>
+        <v>0.07664175084203156</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0994319357559799</v>
+        <v>0.09892895172727222</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1245157738056679</v>
+        <v>0.1257787276959576</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1403851665621107</v>
+        <v>0.1380576379842286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09550962924689853</v>
+        <v>0.09674496285185656</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1281430944558659</v>
+        <v>0.1289614482102478</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.145263017064338</v>
+        <v>0.1432414386784446</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.114319255961519</v>
+        <v>0.1142867581730054</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1405960934893028</v>
+        <v>0.1414463815231677</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1856807513278119</v>
+        <v>0.1832590063142487</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1259456102557353</v>
+        <v>0.1271243049630281</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1170515729189537</v>
+        <v>0.1177065940478544</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.111391770336556</v>
+        <v>0.1117433753307462</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.145392853107431</v>
+        <v>0.149307903252962</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1014678246363263</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.139148499700763</v>
+        <v>0.1391484997007629</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1158289127470264</v>
@@ -969,7 +969,7 @@
         <v>0.1074815762077377</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1479288911550939</v>
+        <v>0.1479288911550938</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1107871267591758</v>
+        <v>0.1104314514963789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1028806067453827</v>
+        <v>0.1004755802619442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08892177506274171</v>
+        <v>0.08867503049750511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.126490629839583</v>
+        <v>0.1274608025080865</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07397338012257149</v>
+        <v>0.07567413420526195</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06552669815467199</v>
+        <v>0.06513573268616336</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07852247273217529</v>
+        <v>0.08015586606484382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1184064794755283</v>
+        <v>0.1155612761882257</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09999655370101471</v>
+        <v>0.09938105349576758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08904062072800802</v>
+        <v>0.08881400804549065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.091302279935016</v>
+        <v>0.09141305068549901</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.129712623886229</v>
+        <v>0.1301243709076761</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1659928523959003</v>
+        <v>0.1665321503484596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1567722661652203</v>
+        <v>0.1546721274061526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1417706586051792</v>
+        <v>0.1406982172373729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1886360954033142</v>
+        <v>0.1929250153549088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1198662150990452</v>
+        <v>0.1210038678049408</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1107477669347296</v>
+        <v>0.1100866310266741</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1266950739479893</v>
+        <v>0.1264480979967609</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1639233504819251</v>
+        <v>0.1641619247508379</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1350086707263954</v>
+        <v>0.1353623870661061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1250825123397634</v>
+        <v>0.1221596847658429</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1261834489920911</v>
+        <v>0.127438699092173</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1681207703982444</v>
+        <v>0.1695602521118377</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0943926629430214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1716024446043391</v>
+        <v>0.171602444604339</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09643993880142619</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1081635002811856</v>
+        <v>0.1086333898090949</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07347939783592659</v>
+        <v>0.07666047461367646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07151396729377738</v>
+        <v>0.07289191202343154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1419117509947706</v>
+        <v>0.1456508466661891</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07175220037993206</v>
+        <v>0.07258656885236346</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08154055954020642</v>
+        <v>0.08038140821760092</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05646952654969153</v>
+        <v>0.05945572483413802</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1444464413428486</v>
+        <v>0.1462895311865093</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09812374968388453</v>
+        <v>0.09723511443781092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08606495941671925</v>
+        <v>0.08640341368254191</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07176997005186898</v>
+        <v>0.07176227446402458</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1516858162914134</v>
+        <v>0.1516988886613039</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1696688571944412</v>
+        <v>0.1696252377255718</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1302074813199435</v>
+        <v>0.1333692586803444</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.120193753026716</v>
+        <v>0.121995063284146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2027406198790159</v>
+        <v>0.2024484486853043</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.123733613836443</v>
+        <v>0.1271831072902244</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1386136704647526</v>
+        <v>0.1355791861112567</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1010816563397045</v>
+        <v>0.1006792725826488</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1897771906810179</v>
+        <v>0.1918134284893647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1376185548015426</v>
+        <v>0.1395210590629709</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1258500593086904</v>
+        <v>0.1243819023874724</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1031684525894076</v>
+        <v>0.1046760939709511</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1872715222746202</v>
+        <v>0.1882755296976653</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08651676367180684</v>
+        <v>0.08351034822791654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05465415843329872</v>
+        <v>0.05646614429680607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05700563962375604</v>
+        <v>0.05755515818370861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.114342037267665</v>
+        <v>0.1139192887160456</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1015053015462483</v>
+        <v>0.1021928989132267</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04523769590607837</v>
+        <v>0.0483054954444951</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0529334473045199</v>
+        <v>0.0529123515715865</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1326397966073868</v>
+        <v>0.1308271108113347</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09963765326995151</v>
+        <v>0.1011679942252052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05790435184981353</v>
+        <v>0.05699432255125245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05952733845681573</v>
+        <v>0.06052219806500292</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1310421028978798</v>
+        <v>0.1292426491432788</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1542290419091603</v>
+        <v>0.149141995647965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1143202945190701</v>
+        <v>0.1198397474008682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.10521620345105</v>
+        <v>0.1091374732042124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1693781762952125</v>
+        <v>0.1676931957746828</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1700516016745995</v>
+        <v>0.1681673290866903</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09787120133559704</v>
+        <v>0.1040565376103371</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1060363032712815</v>
+        <v>0.1051888312750395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1799804282751606</v>
+        <v>0.1758641966332948</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1466422020586235</v>
+        <v>0.1480017501419768</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09700685998079304</v>
+        <v>0.09712194529346245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09652330528837549</v>
+        <v>0.09849990545604</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1669338066700239</v>
+        <v>0.1646038558045979</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06131710298731084</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1215041431601313</v>
+        <v>0.1215041431601312</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0664696302760138</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03853318824098594</v>
+        <v>0.03981779485798291</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04913473695744443</v>
+        <v>0.04980634611000308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03313465149968969</v>
+        <v>0.03251852884484287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1144067440594973</v>
+        <v>0.1160981058343151</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0475794034857097</v>
+        <v>0.04706299646708861</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02749802755414599</v>
+        <v>0.02861301492373924</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03932822211840795</v>
+        <v>0.0382269819607334</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1008843041023873</v>
+        <v>0.09980367228214142</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04949893091829591</v>
+        <v>0.04935611409622091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04421199403809244</v>
+        <v>0.0412934765230748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04247487554064001</v>
+        <v>0.0411181700484571</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1140062513437589</v>
+        <v>0.1134088784808367</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09388230634308629</v>
+        <v>0.09534830585906751</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.117630883411232</v>
+        <v>0.1287101346145489</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08467004360707971</v>
+        <v>0.0870062471802652</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1744185121105213</v>
+        <v>0.1765679132867545</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1042677078681095</v>
+        <v>0.09841113676728094</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07574266504795182</v>
+        <v>0.07434848120244554</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09206080998865292</v>
+        <v>0.0882368706727536</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1467044019593983</v>
+        <v>0.1456298261088328</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08714911680663884</v>
+        <v>0.08835495307822269</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08460693149242969</v>
+        <v>0.0830782530287399</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08018858191521581</v>
+        <v>0.07903211282321769</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1509843620905741</v>
+        <v>0.1501897746380761</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.0306828286110784</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07099796825519505</v>
+        <v>0.07099796825519504</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03714584214012618</v>
@@ -1513,7 +1513,7 @@
         <v>0.03571814253648424</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07761023265642657</v>
+        <v>0.07761023265642655</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02549242682038948</v>
+        <v>0.02439228147399401</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01653653935292598</v>
+        <v>0.0171631695711003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02341679302397024</v>
+        <v>0.02422823010944898</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06520242316211255</v>
+        <v>0.06006835410550344</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01405646193881283</v>
+        <v>0.0135802285593276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02242791945301508</v>
+        <v>0.02309519935582494</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01327255224948232</v>
+        <v>0.01388717369246369</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05421700214778204</v>
+        <v>0.05406368882126917</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0225930835050409</v>
+        <v>0.02273678228129709</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02483281952773024</v>
+        <v>0.02447823830651242</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02212947085999777</v>
+        <v>0.0211811911705457</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06252808639356469</v>
+        <v>0.06313779596609476</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08861897903631893</v>
+        <v>0.0862968472642713</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07915908018307434</v>
+        <v>0.07671558945536404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07382422121452906</v>
+        <v>0.07002331299095145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1171411931824578</v>
+        <v>0.1134165009859032</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05509963087097155</v>
+        <v>0.05463523058770448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06524435343417624</v>
+        <v>0.06725855102987163</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05629854593152431</v>
+        <v>0.06072139656122763</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08860442807735726</v>
+        <v>0.08978088973804851</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05512179036652807</v>
+        <v>0.05857205574923488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05948548289762566</v>
+        <v>0.059053745164898</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05639591598171642</v>
+        <v>0.05441147441189904</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09427929396319143</v>
+        <v>0.09369967075235604</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.0774754943763185</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1005017672187822</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29176</v>
+        <v>29115</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16418</v>
+        <v>16389</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20989</v>
+        <v>21246</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26464</v>
+        <v>26588</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34081</v>
+        <v>33653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19647</v>
+        <v>19643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12576</v>
+        <v>13173</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17385</v>
+        <v>17911</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>69461</v>
+        <v>68729</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40683</v>
+        <v>41464</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>39470</v>
+        <v>38464</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>50877</v>
+        <v>53289</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53571</v>
+        <v>56066</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36003</v>
+        <v>36873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43918</v>
+        <v>44863</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>69379</v>
+        <v>71290</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60192</v>
+        <v>59135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40377</v>
+        <v>40116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30184</v>
+        <v>32430</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46261</v>
+        <v>48598</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>105321</v>
+        <v>105763</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>71185</v>
+        <v>70487</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>67736</v>
+        <v>66421</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>103679</v>
+        <v>104868</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57379</v>
+        <v>58345</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>61080</v>
+        <v>61510</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30948</v>
+        <v>31000</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27793</v>
+        <v>27219</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>57649</v>
+        <v>58055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41140</v>
+        <v>40873</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>50372</v>
+        <v>49472</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60380</v>
+        <v>59029</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>124998</v>
+        <v>124855</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>108907</v>
+        <v>108562</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>87007</v>
+        <v>88305</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>97200</v>
+        <v>96709</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>91268</v>
+        <v>92194</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>96457</v>
+        <v>94858</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56398</v>
+        <v>57128</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61110</v>
+        <v>61500</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>90861</v>
+        <v>89597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69764</v>
+        <v>69744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>78971</v>
+        <v>79449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>92964</v>
+        <v>91752</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>171094</v>
+        <v>172695</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>151856</v>
+        <v>152706</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>128344</v>
+        <v>128749</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>142130</v>
+        <v>145957</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70756</v>
+        <v>70529</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>70150</v>
+        <v>68511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>59414</v>
+        <v>59249</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78530</v>
+        <v>79132</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>51023</v>
+        <v>52196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46580</v>
+        <v>46302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51934</v>
+        <v>53014</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73790</v>
+        <v>72017</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132837</v>
+        <v>132019</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>124008</v>
+        <v>123692</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>121391</v>
+        <v>121538</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>161366</v>
+        <v>161878</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106014</v>
+        <v>106359</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>106897</v>
+        <v>105465</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94726</v>
+        <v>94009</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>117112</v>
+        <v>119775</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>82677</v>
+        <v>83462</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>78725</v>
+        <v>78255</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83794</v>
+        <v>83631</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>102156</v>
+        <v>102305</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>179347</v>
+        <v>179817</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>174204</v>
+        <v>170133</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>167767</v>
+        <v>169436</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>209147</v>
+        <v>210938</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56030</v>
+        <v>56274</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45162</v>
+        <v>47117</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46201</v>
+        <v>47092</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99426</v>
+        <v>102045</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36914</v>
+        <v>37343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50245</v>
+        <v>49531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36598</v>
+        <v>38533</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>106441</v>
+        <v>107799</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101310</v>
+        <v>100393</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>105930</v>
+        <v>106347</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>92881</v>
+        <v>92871</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>218049</v>
+        <v>218068</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87891</v>
+        <v>87868</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>80028</v>
+        <v>81971</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77651</v>
+        <v>78815</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>142044</v>
+        <v>141839</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63656</v>
+        <v>65431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>85414</v>
+        <v>83544</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65511</v>
+        <v>65250</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>139844</v>
+        <v>141345</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>142088</v>
+        <v>144052</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>154898</v>
+        <v>153091</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>133515</v>
+        <v>135466</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>269204</v>
+        <v>270647</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33457</v>
+        <v>32294</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23470</v>
+        <v>24248</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>27122</v>
+        <v>27384</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>69674</v>
+        <v>69416</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>40921</v>
+        <v>41198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20257</v>
+        <v>21631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26300</v>
+        <v>26289</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80663</v>
+        <v>79560</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>78699</v>
+        <v>79907</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>50795</v>
+        <v>49997</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>57898</v>
+        <v>58866</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>159541</v>
+        <v>157350</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59642</v>
+        <v>57675</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49092</v>
+        <v>51463</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50060</v>
+        <v>51926</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103210</v>
+        <v>102183</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>68554</v>
+        <v>67795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43827</v>
+        <v>46597</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52684</v>
+        <v>52263</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>109452</v>
+        <v>106949</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>115825</v>
+        <v>116899</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>85097</v>
+        <v>85198</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>93882</v>
+        <v>95804</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>203238</v>
+        <v>200402</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11274</v>
+        <v>11650</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15221</v>
+        <v>15429</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11078</v>
+        <v>10872</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>46573</v>
+        <v>47261</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16317</v>
+        <v>16140</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9734</v>
+        <v>10129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14790</v>
+        <v>14376</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44305</v>
+        <v>43830</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>31457</v>
+        <v>31367</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>29347</v>
+        <v>27410</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>30174</v>
+        <v>29210</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>96477</v>
+        <v>95972</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27468</v>
+        <v>27897</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36440</v>
+        <v>39873</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28308</v>
+        <v>29089</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>71002</v>
+        <v>71877</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35757</v>
+        <v>33749</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>26813</v>
+        <v>26319</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>34621</v>
+        <v>33183</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>64428</v>
+        <v>63956</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>55385</v>
+        <v>56151</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>56161</v>
+        <v>55146</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>56965</v>
+        <v>56144</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>127770</v>
+        <v>127097</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5304</v>
+        <v>5075</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4132</v>
+        <v>4288</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6018</v>
+        <v>6227</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20226</v>
+        <v>18633</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4694</v>
+        <v>4535</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8724</v>
+        <v>8984</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5294</v>
+        <v>5540</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25190</v>
+        <v>25118</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12244</v>
+        <v>12322</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>15864</v>
+        <v>15637</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>14515</v>
+        <v>13893</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>48447</v>
+        <v>48920</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18437</v>
+        <v>17953</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19778</v>
+        <v>19167</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18973</v>
+        <v>17996</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>36337</v>
+        <v>35182</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18398</v>
+        <v>18243</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25379</v>
+        <v>26162</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22457</v>
+        <v>24222</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>41166</v>
+        <v>41713</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>29873</v>
+        <v>31743</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>38001</v>
+        <v>37725</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>36990</v>
+        <v>35688</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>73048</v>
+        <v>72599</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
     </row>
     <row r="36">
